--- a/HAIMETA_data_driver_framework/test_data/testcases3.xlsx
+++ b/HAIMETA_data_driver_framework/test_data/testcases3.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -32,16 +32,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,21 +66,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,20 +426,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="65.875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="54.625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="12.25" customWidth="1" style="7" min="1" max="1"/>
+    <col width="14.375" customWidth="1" style="7" min="2" max="2"/>
+    <col width="53.5" customWidth="1" style="7" min="3" max="3"/>
+    <col width="18" customWidth="1" style="7" min="4" max="4"/>
+    <col width="16.875" customWidth="1" style="7" min="5" max="5"/>
+    <col width="19.875" customWidth="1" style="7" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>登录和登出测试用例</t>
         </is>
@@ -465,12 +460,12 @@
           <t>操作行为</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>参数</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>用例描述</t>
         </is>
@@ -486,213 +481,100 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="1" s="8">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>open_browser</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>type_=chrome</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>启动chrome</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="42.75" customHeight="1" s="8">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>url=self.LOGIN_URL</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>打开preview环境</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="114" customHeight="1" s="8">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>input_visible</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=self.EMAIL_INPUT_XPATH;text=self.VALID_EMAIL_ACCOUNT</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>输入账号</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="71.25" customHeight="1" s="8">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>click_visible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>by=xpath;value=self.THIRD_PARTY_BUTTON_XPATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>click_visible</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=self.CONTINUE_BUTTON_XPATH</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>点击继续按钮</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="114" customHeight="1" s="8">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>thirdparty_switch</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>input_visible</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=self.PASSWORD_INPUT_XPATH;text=self.VALID_PASSWORD</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>输入密码</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="71.25" customHeight="1" s="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>click_visible</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=self.LOGIN_BUTTON_XPATH</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>点击登录</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>wait_sleep</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="71.25" customHeight="1" s="8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Hover_to_the_button</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=//div[@class="avatar-wrap"]</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n"/>
-    </row>
-    <row r="11" ht="71.25" customHeight="1" s="8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>click_visible</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=self.LOGOUT_BUTTON_XPATH</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n"/>
-    </row>
-    <row r="12" ht="99.75" customHeight="1" s="8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>assert_text</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>by=xpath;value=/html/body/div/div/main/section[1]/h1/span[1]</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> or Click,</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>quit</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="3" t="n"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>by=xpath;value=/html/body/div[1]/div[1]/div[2]/c-wiz/div/div[1]/c-wiz/div/div/div[2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>使用 Google 账号登录</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>